--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
